--- a/ILRG_Hluvukani_C_perguntas_frequentes/ILRG_Hluvukani_C_perguntas_frequentes-media/ILRG_Hluvukani_C_perguntas_frequentes.xlsx
+++ b/ILRG_Hluvukani_C_perguntas_frequentes/ILRG_Hluvukani_C_perguntas_frequentes-media/ILRG_Hluvukani_C_perguntas_frequentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_C_perguntas_frequentes\Hluvukani_C_perguntas_frequentes-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_C_perguntas_frequentes\ILRG_Hluvukani_C_perguntas_frequentes-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84418836-ABEF-4F17-9E24-1926911D12E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04903FC0-4C64-4678-97FD-0C31D4E91710}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>concat('FAQs','_',${date},'_',${tec_name})</t>
   </si>
   <si>
-    <t>Hluvukani_C</t>
-  </si>
-  <si>
     <t>ILRG Hluvukani C - Perguntas Frequentes</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>ILRG_Hluvukani_C</t>
   </si>
 </sst>
 </file>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="4" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1598,19 +1598,19 @@
         <v>34</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,10 +1618,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="38" t="s">
         <v>67</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,15 +1629,15 @@
         <v>35</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="41"/>
     </row>
@@ -1657,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>37</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -1710,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>45</v>
@@ -1750,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1793,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="24"/>
     </row>
@@ -1817,10 +1817,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>79</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -1829,10 +1829,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>81</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -1841,10 +1841,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>83</v>
       </c>
       <c r="D7" s="24"/>
     </row>
@@ -1853,10 +1853,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -1865,10 +1865,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="23"/>
     </row>
@@ -1877,10 +1877,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D10" s="23"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="23"/>
     </row>
@@ -1901,10 +1901,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="23"/>
     </row>
@@ -1913,10 +1913,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D13" s="23"/>
     </row>
@@ -1925,10 +1925,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -1937,10 +1937,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -1949,10 +1949,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="23"/>
     </row>
@@ -1961,10 +1961,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="23"/>
     </row>
@@ -1973,10 +1973,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D18" s="23"/>
     </row>
@@ -1985,7 +1985,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>32</v>
@@ -2012,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>25</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>42</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>48</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>44</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>50</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>49</v>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4">
-        <v>201902281</v>
+        <v>201902282</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>51</v>

--- a/ILRG_Hluvukani_C_perguntas_frequentes/ILRG_Hluvukani_C_perguntas_frequentes-media/ILRG_Hluvukani_C_perguntas_frequentes.xlsx
+++ b/ILRG_Hluvukani_C_perguntas_frequentes/ILRG_Hluvukani_C_perguntas_frequentes-media/ILRG_Hluvukani_C_perguntas_frequentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_C_perguntas_frequentes\ILRG_Hluvukani_C_perguntas_frequentes-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04903FC0-4C64-4678-97FD-0C31D4E91710}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12897648-3731-4E3E-A2A4-2D9611729BC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>type</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Data:</t>
   </si>
   <si>
-    <t>Delimitação Comunitário</t>
-  </si>
-  <si>
     <t>Delimitação Familiar</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Associação</t>
-  </si>
-  <si>
-    <t>Plano de Uso</t>
   </si>
   <si>
     <t>Qual é a pergunta?</t>
@@ -185,9 +179,6 @@
     <t>delim_fam</t>
   </si>
   <si>
-    <t>delim_com</t>
-  </si>
-  <si>
     <t>concat('FAQs','_',${date},'_',${tec_name})</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>awareness</t>
   </si>
   <si>
-    <t>land_use_plan</t>
-  </si>
-  <si>
     <t>Para qual modúlo/capitulo é a pergunta?</t>
   </si>
   <si>
@@ -266,103 +254,74 @@
     <t>Boaventura Jovo</t>
   </si>
   <si>
-    <t>Carlos_Munjovo</t>
-  </si>
-  <si>
-    <t>Carlos Munjovo</t>
-  </si>
-  <si>
-    <t>Edmilson_Momade</t>
-  </si>
-  <si>
-    <t>Edmilson Momade</t>
-  </si>
-  <si>
-    <t>Edson_Adozinda</t>
-  </si>
-  <si>
-    <t>Edson Adozinda</t>
-  </si>
-  <si>
-    <t>Efigencia_Alberto</t>
-  </si>
-  <si>
-    <t>Efigencia Alberto</t>
-  </si>
-  <si>
-    <t>Ester_Matlombe</t>
-  </si>
-  <si>
-    <t>Ester Matlombe</t>
-  </si>
-  <si>
-    <t>Gercia_A.Mabunda</t>
-  </si>
-  <si>
-    <t>Gercia A.Mabunda</t>
-  </si>
-  <si>
-    <t>Guilherme_Nhacundela</t>
-  </si>
-  <si>
-    <t>Guilherme Nhacundela</t>
-  </si>
-  <si>
     <t>Helena_Bila</t>
   </si>
   <si>
     <t>Helena Bila</t>
   </si>
   <si>
-    <t>Herondina_Timane</t>
-  </si>
-  <si>
-    <t>Herondina Timane</t>
-  </si>
-  <si>
-    <t>Irene_Timane</t>
-  </si>
-  <si>
-    <t>Irene Timane</t>
-  </si>
-  <si>
     <t>Julio_Manheia</t>
   </si>
   <si>
     <t>Julio Manheia</t>
   </si>
   <si>
-    <t>Ossifo_Pinto</t>
-  </si>
-  <si>
-    <t>Ossifo Pinto</t>
-  </si>
-  <si>
     <t>Raquel_Ambasse</t>
   </si>
   <si>
     <t>Raquel Ambasse</t>
   </si>
   <si>
-    <t>Sandra_Dimande</t>
-  </si>
-  <si>
-    <t>Sandra Dimande</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>ILRG_Hluvukani_C</t>
+  </si>
+  <si>
+    <t>Carlos_Mujovo</t>
+  </si>
+  <si>
+    <t>Carlos Mujovo</t>
+  </si>
+  <si>
+    <t>Edson_Ernesto</t>
+  </si>
+  <si>
+    <t>Edson Ernesto</t>
+  </si>
+  <si>
+    <t>Efigencia_Mavondza</t>
+  </si>
+  <si>
+    <t>Efigencia Mavondza</t>
+  </si>
+  <si>
+    <t>Gercia_Mabunda</t>
+  </si>
+  <si>
+    <t>Gercia Mabunda</t>
+  </si>
+  <si>
+    <t>Irene_Timana</t>
+  </si>
+  <si>
+    <t>Irene Timana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -567,331 +526,335 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1478,11 +1441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,13 +1544,13 @@
     </row>
     <row r="4" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1598,19 +1561,19 @@
         <v>34</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,10 +1581,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,15 +1592,15 @@
         <v>35</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" s="41"/>
     </row>
@@ -1649,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1657,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>37</v>
@@ -1693,13 +1656,13 @@
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -1710,13 +1673,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>22</v>
@@ -1748,13 +1711,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:C19"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1730,7 @@
     <col min="6" max="16384" width="10.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1782,305 +1745,205 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B10" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    </row>
+    <row r="12" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>93</v>
+      <c r="B13" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B16" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="C18" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="35" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="25"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C22">
-    <sortCondition ref="C14:C22"/>
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C16">
+    <sortCondition ref="C14:C6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2091,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,16 +1983,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4">
-        <v>201902282</v>
+        <v>201903081</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
